--- a/fhir/finnish-smart/StructureDefinition-fi-smart-problem-list-item.xlsx
+++ b/fhir/finnish-smart/StructureDefinition-fi-smart-problem-list-item.xlsx
@@ -9,6 +9,9 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$38</definedName>
+  </definedNames>
 </workbook>
 </file>
 
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-rc1</t>
+    <t>2.0.0-rc2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-06T22:29:11+02:00</t>
+    <t>2025-05-11T17:07:13+03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1229,6 +1232,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1414,17 +1432,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="34.86328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="34.86328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="30.07421875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.07421875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="9.79296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="79.19140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.3125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1433,28 +1451,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="83.078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="51.6875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="71.6640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="28.8359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="66.34375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="212.8046875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="57.23046875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="183.56640625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1585,7 +1603,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1703,7 +1721,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>90</v>
       </c>
@@ -1823,7 +1841,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>98</v>
       </c>
@@ -1941,7 +1959,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>104</v>
       </c>
@@ -2061,7 +2079,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>110</v>
       </c>
@@ -2181,7 +2199,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>119</v>
       </c>
@@ -2301,7 +2319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>127</v>
       </c>
@@ -2421,7 +2439,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>135</v>
       </c>
@@ -2541,7 +2559,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>143</v>
       </c>
@@ -2663,7 +2681,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>148</v>
       </c>
@@ -2785,7 +2803,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
         <v>157</v>
       </c>
@@ -2804,7 +2822,7 @@
         <v>91</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>92</v>
@@ -2905,7 +2923,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>171</v>
       </c>
@@ -2924,7 +2942,7 @@
         <v>91</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>92</v>
@@ -3025,7 +3043,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -3044,7 +3062,7 @@
         <v>81</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>79</v>
@@ -3145,7 +3163,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
         <v>192</v>
       </c>
@@ -3265,7 +3283,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>202</v>
       </c>
@@ -3278,13 +3296,13 @@
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>91</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>79</v>
@@ -3385,7 +3403,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>216</v>
       </c>
@@ -3505,7 +3523,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
         <v>225</v>
       </c>
@@ -3524,7 +3542,7 @@
         <v>91</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>79</v>
@@ -3625,7 +3643,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
         <v>235</v>
       </c>
@@ -3745,7 +3763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>244</v>
       </c>
@@ -3865,7 +3883,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
         <v>253</v>
       </c>
@@ -3985,7 +4003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
         <v>260</v>
       </c>
@@ -4103,7 +4121,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
         <v>267</v>
       </c>
@@ -4221,7 +4239,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
         <v>273</v>
       </c>
@@ -4339,7 +4357,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>279</v>
       </c>
@@ -4457,7 +4475,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>285</v>
       </c>
@@ -4575,7 +4593,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
         <v>291</v>
       </c>
@@ -4695,7 +4713,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
         <v>294</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>299</v>
       </c>
@@ -4935,7 +4953,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
         <v>306</v>
       </c>
@@ -5053,7 +5071,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>311</v>
       </c>
@@ -5171,7 +5189,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
         <v>317</v>
       </c>
@@ -5291,7 +5309,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>323</v>
       </c>
@@ -5409,7 +5427,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>324</v>
       </c>
@@ -5529,7 +5547,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>325</v>
       </c>
@@ -5651,7 +5669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>326</v>
       </c>
@@ -5769,7 +5787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
         <v>335</v>
       </c>
@@ -5887,7 +5905,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>339</v>
       </c>
@@ -6006,6 +6024,24 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AP38">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI37">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>